--- a/GosZakupAutomation/data/Config.xlsx
+++ b/GosZakupAutomation/data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\__bite_dev\PROJGosZakupAutomation\GosZakupAutomation\dist\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7291F1-E960-4286-86FC-41EF736DF553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8316F6B-E666-4B7B-ADEA-B54965D50003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CF29381C-BBBC-4892-948C-B1A8516F6FD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{CF29381C-BBBC-4892-948C-B1A8516F6FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Настройка аккаунта" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7085C12-3BEE-4D61-826D-6B96E48CD906}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -683,7 +683,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7C5659-2810-411C-A2A6-224E30472B0B}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
